--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="16005" windowHeight="2970"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16005" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -137,14 +137,13 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>Opera</t>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -500,19 +499,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -554,7 +553,6 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -572,7 +570,6 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -593,7 +590,6 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -614,7 +610,6 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -632,7 +627,6 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -650,7 +644,6 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -665,10 +658,6 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="G8"/>
-    </row>
-    <row r="9">
-      <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -10,12 +10,11 @@
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" calcMode="manual"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -131,13 +130,19 @@
     <t>Waiting Time</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Firefox</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>LOGIN_BUTTON</t>
+  </si>
+  <si>
+    <t>LOGOUT_BUTTON</t>
   </si>
 </sst>
 </file>
@@ -497,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G11" sqref="G11:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -605,7 +610,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -625,7 +630,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -642,7 +647,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -694,10 +699,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -716,9 +718,6 @@
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -739,9 +738,6 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
@@ -762,9 +758,6 @@
       <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -782,9 +775,6 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
@@ -799,11 +789,8 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -819,11 +806,8 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -836,11 +820,8 @@
       <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -856,11 +837,8 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -873,11 +851,8 @@
       <c r="D20" t="s">
         <v>37</v>
       </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -893,11 +868,8 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -909,54 +881,6 @@
       </c>
       <c r="D22" t="s">
         <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="G31" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -79,15 +79,9 @@
     <t>Enter UserID</t>
   </si>
   <si>
-    <t>//*[@id="username"]</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
-    <t>//*[@id="password"]</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Click on Login Button</t>
   </si>
   <si>
-    <t>//*[@id="login-3"]/p[3]/input</t>
-  </si>
-  <si>
     <t>mouseHover</t>
   </si>
   <si>
@@ -115,15 +106,6 @@
     <t>Click on Logout button</t>
   </si>
   <si>
-    <t>//*[@id="cssmenu"]/ul/div/div[2]/a/span/i</t>
-  </si>
-  <si>
-    <t>//*[@id="cssmenu"]/ul/li[2]/a/span</t>
-  </si>
-  <si>
-    <t>//*[@id="cssmenu"]/ul/li[2]/ul/li[1]/a/span</t>
-  </si>
-  <si>
     <t>waitTime</t>
   </si>
   <si>
@@ -143,6 +125,15 @@
   </si>
   <si>
     <t>LOGOUT_BUTTON</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>ADMIN_SERVICES</t>
+  </si>
+  <si>
+    <t>ADD_USER</t>
   </si>
 </sst>
 </file>
@@ -504,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -558,6 +549,9 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -575,6 +569,9 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -590,10 +587,13 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -607,13 +607,16 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -627,10 +630,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -641,13 +647,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -663,6 +672,9 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -683,7 +695,9 @@
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -699,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -733,10 +747,10 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -750,13 +764,13 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -770,10 +784,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -784,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -798,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -815,10 +829,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -829,13 +843,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -846,10 +860,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -860,13 +874,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -106,15 +106,6 @@
     <t>Click on Logout button</t>
   </si>
   <si>
-    <t>waitTime</t>
-  </si>
-  <si>
-    <t>Waiting Time</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>USERNAME</t>
   </si>
   <si>
@@ -127,19 +118,20 @@
     <t>LOGOUT_BUTTON</t>
   </si>
   <si>
+    <t>ADMIN_SERVICES</t>
+  </si>
+  <si>
+    <t>ADD_USER</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>ADMIN_SERVICES</t>
-  </si>
-  <si>
-    <t>ADD_USER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -493,21 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G11" sqref="G11:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -549,9 +541,6 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -569,9 +558,6 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -587,13 +573,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,13 +593,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +613,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -653,10 +630,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -672,9 +646,6 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -713,7 +684,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -732,6 +706,9 @@
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
@@ -747,10 +724,13 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -767,10 +747,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -787,7 +770,10 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -798,10 +784,16 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -812,13 +804,16 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -829,10 +824,16 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -843,58 +844,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
   <si>
     <t>TestCase_ID</t>
   </si>

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="39">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS - User is able to open Chrome browser</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
     <col min="4" max="4" customWidth="true" width="38.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="42.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="40.19140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -687,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
   <si>
     <t>TestCase_ID</t>
   </si>

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="39">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -547,6 +547,9 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -564,6 +567,9 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -584,6 +590,9 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -604,6 +613,9 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -621,6 +633,9 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -638,6 +653,9 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -651,6 +669,9 @@
       </c>
       <c r="D8" t="s">
         <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
+++ b/HYD_POLICE/src/config_Data/Keyword_Driven.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="39">
   <si>
     <t>TestCase_ID</t>
   </si>
